--- a/medicine/Mort/Comme_un_oiseau_blessé/Comme_un_oiseau_blessé.xlsx
+++ b/medicine/Mort/Comme_un_oiseau_blessé/Comme_un_oiseau_blessé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comme_un_oiseau_bless%C3%A9</t>
+          <t>Comme_un_oiseau_blessé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Comme un oiseau blessé est une nouvelle sarcastique de science-fiction de Gilbert Michel.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comme_un_oiseau_bless%C3%A9</t>
+          <t>Comme_un_oiseau_blessé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nouvelle a été publiée pour la première fois dans le magazine Fiction, n°193, en janvier 1970.
 Elle a notamment été publiée en 1988 dans l’anthologie Les Mondes francs.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comme_un_oiseau_bless%C3%A9</t>
+          <t>Comme_un_oiseau_blessé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur la planète Terre, en ce XXXe siècle, tout va bien : les humains sont répartis en classes sociales, tout le monde mange à sa faim, les conflits sociaux ont disparu, comme ont disparu le racisme, la guerre, les meurtres, les crimes sexuels, le désespoir, la haine, la violence, etc.
 Une classe sociale respectée, les Esthètes, qui vit de la création artistique, a créé une nouvelle activité fort respectée et valorisée, le « suicide artistique ». Cette activité consiste à choisir le moment et le lieu de sa mort, et à se suicider de la manière la plus artistiquement parfaite possible.
